--- a/biology/Zoologie/Cimoliasaurus/Cimoliasaurus.xlsx
+++ b/biology/Zoologie/Cimoliasaurus/Cimoliasaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cimoliasaurus (« lézard de la craie blanche ») est un genre éteint de plésiosaures du New Jersey (États-Unis), qui a vécu pendant le Crétacé supérieur. Il pouvait atteindre une taille avoisinant les 5 mètres pour un poids de près d'une tonne.
 </t>
@@ -511,7 +523,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il était auparavant l'espèce type de sa propre famille : les Cimoliasauridae. Cependant, cette famille est aujourd'hui obsolète et est considérée comme étant synonyme de Elasmosauridae.
 </t>
@@ -542,7 +556,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom est dérivé du grec « Κιμωλία / Kimolia », ce qui signifie « la craie blanche », et « σαύρος / sauros », ce qui signifie « lézard ». Le préfixe fait référence au fait qu'il a été constaté que ses restes avaient une ressemblance superficielle avec les dépôts de craie de la Voie maritime intérieure de l'Ouest. 
 </t>
